--- a/RoomServer/expenses.xlsx
+++ b/RoomServer/expenses.xlsx
@@ -56,12 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,29 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Claudio</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>oil</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>25/11/24</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -505,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +503,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Claudio</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
